--- a/bulk-upload-templates/it/e-label_excel_import_it.xlsx
+++ b/bulk-upload-templates/it/e-label_excel_import_it.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxbauer/workspace/vs_code/misc/e-label.io/bulk-upload-templates/it/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AAB091B-3937-584F-94CE-C7E5C34945B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD11F9C-151E-174D-B3DD-2C8BB933DA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5020" yWindow="2900" windowWidth="30240" windowHeight="15580" xr2:uid="{42B7CF4C-2976-4744-81A6-4766AD4B0A9A}"/>
   </bookViews>
